--- a/data/trans_camb/P1804_2016_2023-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1804_2016_2023-Dificultad-trans_camb.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-1.026342263513574</v>
+        <v>-1.026342263513575</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.5516070416674901</v>
+        <v>0.5516070416674914</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-0.08751441705351359</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.724126640617781</v>
+        <v>-3.521802015289695</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.191101677741538</v>
+        <v>-2.247041452768116</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.053313696139872</v>
+        <v>-2.007671249404192</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.07938572781039</v>
+        <v>2.005221940734494</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.399840379828596</v>
+        <v>3.57868516112075</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.958697190598833</v>
+        <v>2.137757614648875</v>
       </c>
     </row>
     <row r="7">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-0.1425418498771718</v>
+        <v>-0.1425418498771719</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.0582947214740382</v>
+        <v>0.05829472147403835</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.01042625143460813</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4571671560269315</v>
+        <v>-0.4509244084920188</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2126642727151868</v>
+        <v>-0.2172505189612998</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2291054647427072</v>
+        <v>-0.2257280158102873</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3304215922868054</v>
+        <v>0.3204871209857122</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4058778173341928</v>
+        <v>0.4285772412796801</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2545843875609585</v>
+        <v>0.2803963626617313</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.352551703858595</v>
+        <v>-4.1722891081862</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.155025518626003</v>
+        <v>-5.240769108774269</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.184792533124459</v>
+        <v>-4.227085924201448</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.3404768629138941</v>
+        <v>-0.3101574460177267</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.2703213712329258</v>
+        <v>-0.3804431481533507</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.8879391783666029</v>
+        <v>-0.9437640013018986</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6420474969749589</v>
+        <v>-0.6318552503248288</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4369127045252025</v>
+        <v>-0.443028346974639</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4573956493094335</v>
+        <v>-0.4568045436797203</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.06133077576607839</v>
+        <v>-0.06047306946140328</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.0293139858758855</v>
+        <v>-0.04452424002519379</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1152464087849052</v>
+        <v>-0.1271827216834852</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +782,7 @@
         <v>-2.012599778069868</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.03997746346990627</v>
+        <v>0.03997746346990488</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.497500548047769</v>
+        <v>-0.6031144618169431</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.081008249178378</v>
+        <v>-4.973316292352411</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.777993928248834</v>
+        <v>-1.963309500939232</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.551381762240639</v>
+        <v>4.642487591533529</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6061053341736856</v>
+        <v>0.537166828803962</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.987555864391131</v>
+        <v>1.975963385436542</v>
       </c>
     </row>
     <row r="19">
@@ -833,7 +833,7 @@
         <v>-0.2031361166192564</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.005310319341655443</v>
+        <v>0.005310319341655258</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.08966215037380454</v>
+        <v>-0.1053728080289322</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4266276499488818</v>
+        <v>-0.4095045507752332</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.212183577860189</v>
+        <v>-0.2271064908542174</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.048989216347236</v>
+        <v>1.116206514915617</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.07329606715469432</v>
+        <v>0.07656061657469065</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.316545459269787</v>
+        <v>0.2891389677842326</v>
       </c>
     </row>
     <row r="22">
@@ -888,7 +888,7 @@
         <v>-1.178947561763609</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.2875596902694288</v>
+        <v>-0.2875596902694302</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.557072528045768</v>
+        <v>-2.73213858220161</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.711301549658246</v>
+        <v>-4.80081439170059</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.801617575537426</v>
+        <v>-2.729855541153569</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.698040384341465</v>
+        <v>3.609599905984538</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.998356250402283</v>
+        <v>1.702903306562348</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.900128096821657</v>
+        <v>1.835852885223842</v>
       </c>
     </row>
     <row r="25">
@@ -939,7 +939,7 @@
         <v>-0.1106113387978759</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.03201562925021926</v>
+        <v>-0.03201562925021941</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.28334487297038</v>
+        <v>-0.2937186927488255</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3553026998621082</v>
+        <v>-0.3552224041002048</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2601116753948068</v>
+        <v>-0.2531979986552433</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.645021989366377</v>
+        <v>0.623158176360699</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2422459276546095</v>
+        <v>0.2065234134109629</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2516232024160351</v>
+        <v>0.2511275048708531</v>
       </c>
     </row>
     <row r="28">
@@ -991,10 +991,10 @@
         <v>-0.1245880123444412</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-1.427238367511574</v>
+        <v>-1.427238367511573</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.784084649697564</v>
+        <v>-0.7840846496975653</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.424107574087693</v>
+        <v>-1.409618345891805</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.817103092278661</v>
+        <v>-2.815295822656823</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.693406357230892</v>
+        <v>-1.741890559643936</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.004492054010844</v>
+        <v>1.209669247561998</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.1207444862601359</v>
+        <v>-0.1056938085022571</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.19268983813132</v>
+        <v>0.1705777823557237</v>
       </c>
     </row>
     <row r="31">
@@ -1042,10 +1042,10 @@
         <v>-0.01963236210671999</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.1434127438280815</v>
+        <v>-0.1434127438280814</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.09572837274042978</v>
+        <v>-0.09572837274042995</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2073624194853126</v>
+        <v>-0.202769842515825</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2625297450745485</v>
+        <v>-0.2558898773252977</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1964318621138756</v>
+        <v>-0.1993234469155067</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1742762189634882</v>
+        <v>0.213098251529725</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.01319353614264391</v>
+        <v>-0.009566518617721356</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.02636696937855401</v>
+        <v>0.02123060861842732</v>
       </c>
     </row>
     <row r="34">
